--- a/test_data/excelFile/file1.xlsx
+++ b/test_data/excelFile/file1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamdt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamdt\GolandProjects\graduation\test_data\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B747CBA-6ED2-432C-BF94-A61CB681B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4EC270-9F29-475D-9AE2-FBC1A31D1A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Felix</t>
+  </si>
+  <si>
+    <t>ádsa</t>
+  </si>
+  <si>
+    <t>ádsad</t>
   </si>
 </sst>
 </file>
@@ -499,15 +505,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A325FFC2-8CC1-44D2-AB32-68968A8256A2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -528,8 +534,11 @@
       <c r="C2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -540,7 +549,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -550,8 +559,11 @@
       <c r="C4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -562,7 +574,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
